--- a/data/trans_camb/P57_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P57_R2-Clase-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>7.945176081600275</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>14.55155428684577</v>
+        <v>14.55155428684576</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>10.96010012728645</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9228487408101248</v>
+        <v>1.996716518404494</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.591956992329815</v>
+        <v>7.913206074581021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.686528261103907</v>
+        <v>6.013965490592977</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.20828853076025</v>
+        <v>14.74024731296542</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.04683138385696</v>
+        <v>20.7077755896691</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.07449837747753</v>
+        <v>15.45511086511214</v>
       </c>
     </row>
     <row r="7">
@@ -618,10 +618,10 @@
         <v>0.2211159201459216</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.4532966778331396</v>
+        <v>0.4532966778331392</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3202791616475039</v>
+        <v>0.3202791616475037</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.02327905543593221</v>
+        <v>0.04828414080420435</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2047878539566613</v>
+        <v>0.2169568500953275</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.180776062674534</v>
+        <v>0.1614568242237264</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4539868289789383</v>
+        <v>0.4533049225712994</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7813271338075263</v>
+        <v>0.7287675886329139</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5210875344657306</v>
+        <v>0.496437486367633</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>19.98505422038715</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18.13613387221726</v>
+        <v>18.13613387221725</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>9.090858527933769</v>
+        <v>9.599646666485803</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>13.63105891713539</v>
+        <v>13.2916396960052</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13.16384855855304</v>
+        <v>13.50428854600293</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.86436674233143</v>
+        <v>23.74443806263556</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>25.97050419195248</v>
+        <v>26.15129509534462</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22.79098198614278</v>
+        <v>22.83539135083346</v>
       </c>
     </row>
     <row r="13">
@@ -727,7 +727,7 @@
         <v>0.8036246717981848</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.6363210236112201</v>
+        <v>0.6363210236112199</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.265363330031945</v>
+        <v>0.2689238082866975</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4657695642528584</v>
+        <v>0.4699070742012396</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4328057405617388</v>
+        <v>0.4221993680650808</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.837838352903079</v>
+        <v>0.8370313084112687</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.22744930743575</v>
+        <v>1.252202267053597</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.9033267348313393</v>
+        <v>0.883022288425204</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>12.92216061382129</v>
+        <v>12.51414869284838</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.858886740316318</v>
+        <v>5.651148621592649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.46017973459155</v>
+        <v>12.28640062213362</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.87505026147567</v>
+        <v>24.72989546595992</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.38440852510171</v>
+        <v>23.62454709468351</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22.63528148136188</v>
+        <v>22.55079779519977</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3980746625348072</v>
+        <v>0.3959131937590644</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1824664405179912</v>
+        <v>0.182269739144868</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4011248518359833</v>
+        <v>0.3948498398391417</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.953960965209205</v>
+        <v>0.9636275899925139</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.18214862729911</v>
+        <v>1.189996370768368</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8847554516941163</v>
+        <v>0.8883988769520862</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>13.37290258709661</v>
+        <v>12.90368640117451</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.449446020720876</v>
+        <v>8.311396782148998</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12.08006314909922</v>
+        <v>12.30320588879896</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>21.73127476051167</v>
+        <v>21.54487802035561</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.09958864700935</v>
+        <v>16.69317006331267</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18.32377685840708</v>
+        <v>18.21197724640291</v>
       </c>
     </row>
     <row r="25">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0.615720313654597</v>
+        <v>0.6157203136545972</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>0.4179908843209216</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.4444217522434218</v>
+        <v>0.4435544044088459</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2384489648914339</v>
+        <v>0.2537171081999088</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4000133399306093</v>
+        <v>0.4068871183898376</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8331193944519052</v>
+        <v>0.8312345123470731</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6023485883956218</v>
+        <v>0.5916098866852603</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6703300320160779</v>
+        <v>0.6660194757180986</v>
       </c>
     </row>
     <row r="28">
@@ -994,7 +994,7 @@
         <v>14.75957642018715</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15.58355742353206</v>
+        <v>15.58355742353205</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>11.64945058927179</v>
+        <v>11.58436345246612</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>10.3160965101056</v>
+        <v>10.69415603274288</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12.04440698324392</v>
+        <v>12.59633459201697</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.16850446802576</v>
+        <v>23.37962892280481</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>18.41180975255218</v>
+        <v>18.53406531733512</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18.94990484277018</v>
+        <v>19.06896938132001</v>
       </c>
     </row>
     <row r="31">
@@ -1045,7 +1045,7 @@
         <v>0.8041808266140813</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.7400366368167175</v>
+        <v>0.7400366368167169</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.4364750346472748</v>
+        <v>0.4358218574118841</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.5074697033208806</v>
+        <v>0.5214033204228</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5128213515167613</v>
+        <v>0.5449272932440618</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.083221493359593</v>
+        <v>1.0603896981976</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.144837074821675</v>
+        <v>1.135025593250713</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9612147285329962</v>
+        <v>0.994816018467039</v>
       </c>
     </row>
     <row r="34">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>6.181993919064648</v>
+        <v>6.556448361584614</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>10.37647398826402</v>
+        <v>10.28832761395715</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>11.47092130654261</v>
+        <v>11.09302736806207</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>30.15691525399168</v>
+        <v>28.36938402154076</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>19.14389536466951</v>
+        <v>19.03987312929115</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20.13556137153443</v>
+        <v>19.88091566438277</v>
       </c>
     </row>
     <row r="37">
@@ -1148,10 +1148,10 @@
         <v>0.4098842642927986</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.5212010124883087</v>
+        <v>0.521201012488309</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.4945967507140668</v>
+        <v>0.4945967507140666</v>
       </c>
     </row>
     <row r="38">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.1311187958411691</v>
+        <v>0.1367563971126005</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.3514390214141773</v>
+        <v>0.337191351674751</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.3522796118771764</v>
+        <v>0.3277426807368911</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.7302907484744987</v>
+        <v>0.6799767600273042</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.7421229052990351</v>
+        <v>0.7187851733641483</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.6796700310653732</v>
+        <v>0.6681756000700086</v>
       </c>
     </row>
     <row r="40">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>13.47512893740084</v>
+        <v>13.52864470851732</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>12.68109454088829</v>
+        <v>12.65463374687645</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>13.73044049324782</v>
+        <v>13.73082387045888</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>18.44724849549068</v>
+        <v>18.73331008645044</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>16.94794314105251</v>
+        <v>16.98130707618657</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>17.0455142357433</v>
+        <v>16.97479454052372</v>
       </c>
     </row>
     <row r="43">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="C43" s="6" t="n">
-        <v>0.5291420742210591</v>
+        <v>0.5291420742210589</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>0.5574439808886855</v>
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.4310241204201347</v>
+        <v>0.4293332281579876</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.4638167053765805</v>
+        <v>0.4627287101797412</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.470046635475133</v>
+        <v>0.4716354207106724</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6335264498562184</v>
+        <v>0.6419384434013909</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6770974543007545</v>
+        <v>0.6803105627346117</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.623806711938374</v>
+        <v>0.6162581524801999</v>
       </c>
     </row>
     <row r="46">
